--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:07:17+00:00</t>
+    <t>2024-12-06T22:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -581,9 +581,6 @@
 An instance-order is an instantiation of a request or order and may be used to populate Medication Administration Record.  This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
   </si>
   <si>
     <t>The kind of medication order.</t>
@@ -3421,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>21</v>
@@ -3439,10 +3436,10 @@
         <v>161</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>21</v>
@@ -3475,16 +3472,16 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>21</v>
@@ -3492,10 +3489,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3521,13 +3518,13 @@
         <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3556,11 +3553,11 @@
         <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>21</v>
       </c>
@@ -3577,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3595,13 +3592,13 @@
         <v>21</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM15" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>21</v>
@@ -3609,10 +3606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3638,10 +3635,10 @@
         <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3671,11 +3668,11 @@
         <v>161</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>21</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>21</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3707,16 +3704,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>21</v>
@@ -3724,10 +3721,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3750,16 +3747,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3809,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3830,7 +3827,7 @@
         <v>21</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>21</v>
@@ -3841,10 +3838,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3867,13 +3864,13 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3924,7 +3921,7 @@
         <v>21</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3945,7 +3942,7 @@
         <v>21</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>21</v>
@@ -3956,10 +3953,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3985,13 +3982,13 @@
         <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4021,7 +4018,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>21</v>
@@ -4039,7 +4036,7 @@
         <v>21</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -4054,27 +4051,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4097,16 +4094,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4156,7 +4153,7 @@
         <v>21</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>90</v>
@@ -4171,27 +4168,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4214,16 +4211,16 @@
         <v>21</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4273,7 +4270,7 @@
         <v>21</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4288,27 +4285,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4331,13 +4328,13 @@
         <v>21</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4388,7 +4385,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4403,16 +4400,16 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>21</v>
@@ -4420,10 +4417,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4446,13 +4443,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4503,7 +4500,7 @@
         <v>21</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4518,27 +4515,27 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4561,13 +4558,13 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4618,7 +4615,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4633,16 +4630,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>21</v>
@@ -4650,10 +4647,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4676,13 +4673,13 @@
         <v>21</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4733,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4748,16 +4745,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>21</v>
@@ -4765,10 +4762,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4794,13 +4791,13 @@
         <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4829,11 +4826,11 @@
         <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>21</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>21</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4865,13 +4862,13 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>21</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4908,13 +4905,13 @@
         <v>21</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4965,7 +4962,7 @@
         <v>21</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4986,10 +4983,10 @@
         <v>21</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>21</v>
@@ -4997,10 +4994,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5026,13 +5023,13 @@
         <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5061,11 +5058,11 @@
         <v>173</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>21</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>21</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5097,27 +5094,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5140,16 +5137,16 @@
         <v>21</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5199,7 +5196,7 @@
         <v>21</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5214,16 +5211,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>165</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>21</v>
@@ -5231,10 +5228,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5257,13 +5254,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5314,7 +5311,7 @@
         <v>21</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5329,13 +5326,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>21</v>
@@ -5346,10 +5343,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5375,10 +5372,10 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5429,7 +5426,7 @@
         <v>21</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5450,7 +5447,7 @@
         <v>21</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>21</v>
@@ -5461,10 +5458,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5487,13 +5484,13 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5544,7 +5541,7 @@
         <v>21</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5559,13 +5556,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>21</v>
@@ -5576,10 +5573,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5605,14 +5602,14 @@
         <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>21</v>
@@ -5661,7 +5658,7 @@
         <v>21</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5676,13 +5673,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>21</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5722,13 +5719,13 @@
         <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5757,11 +5754,11 @@
         <v>173</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>21</v>
       </c>
@@ -5778,7 +5775,7 @@
         <v>21</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5799,7 +5796,7 @@
         <v>21</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>21</v>
@@ -5810,10 +5807,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5836,13 +5833,13 @@
         <v>21</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5893,7 +5890,7 @@
         <v>21</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5908,13 +5905,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>21</v>
@@ -5925,10 +5922,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5951,13 +5948,13 @@
         <v>21</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6008,7 +6005,7 @@
         <v>21</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6023,13 +6020,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>21</v>
@@ -6040,10 +6037,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6066,16 +6063,16 @@
         <v>21</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6125,7 +6122,7 @@
         <v>21</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6140,13 +6137,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>21</v>
@@ -6157,10 +6154,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6183,13 +6180,13 @@
         <v>21</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6240,7 +6237,7 @@
         <v>21</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6258,10 +6255,10 @@
         <v>21</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>21</v>
@@ -6272,10 +6269,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6298,13 +6295,13 @@
         <v>21</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6355,7 +6352,7 @@
         <v>21</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6376,7 +6373,7 @@
         <v>21</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>21</v>
@@ -6387,10 +6384,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6419,7 +6416,7 @@
         <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>139</v>
@@ -6472,7 +6469,7 @@
         <v>21</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6493,7 +6490,7 @@
         <v>21</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>21</v>
@@ -6504,14 +6501,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6533,10 +6530,10 @@
         <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>139</v>
@@ -6591,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6623,10 +6620,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6649,16 +6646,16 @@
         <v>21</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6708,7 +6705,7 @@
         <v>21</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6729,7 +6726,7 @@
         <v>21</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>21</v>
@@ -6740,10 +6737,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6766,13 +6763,13 @@
         <v>21</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6823,7 +6820,7 @@
         <v>21</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6844,7 +6841,7 @@
         <v>21</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>21</v>
@@ -6855,10 +6852,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6887,7 +6884,7 @@
         <v>137</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -6940,7 +6937,7 @@
         <v>21</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6958,7 @@
         <v>21</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>21</v>
@@ -6972,14 +6969,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7001,10 +6998,10 @@
         <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>139</v>
@@ -7059,7 +7056,7 @@
         <v>21</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7091,10 +7088,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7117,13 +7114,13 @@
         <v>21</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7174,7 +7171,7 @@
         <v>21</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7195,7 +7192,7 @@
         <v>21</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>21</v>
@@ -7206,10 +7203,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7232,13 +7229,13 @@
         <v>21</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7289,7 +7286,7 @@
         <v>21</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7310,7 +7307,7 @@
         <v>21</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>21</v>
@@ -7321,10 +7318,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7347,13 +7344,13 @@
         <v>21</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7404,7 +7401,7 @@
         <v>21</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7422,7 @@
         <v>21</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>21</v>
@@ -7436,10 +7433,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7462,19 +7459,19 @@
         <v>21</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>21</v>
@@ -7523,7 +7520,7 @@
         <v>21</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7541,10 +7538,10 @@
         <v>21</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>21</v>
@@ -7555,10 +7552,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7581,16 +7578,16 @@
         <v>21</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7640,7 +7637,7 @@
         <v>21</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7658,24 +7655,24 @@
         <v>21</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7698,13 +7695,13 @@
         <v>21</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7755,7 +7752,7 @@
         <v>21</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7773,24 +7770,24 @@
         <v>21</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7813,16 +7810,16 @@
         <v>21</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7872,7 +7869,7 @@
         <v>21</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7890,10 +7887,10 @@
         <v>21</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>21</v>
@@ -7904,10 +7901,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7930,13 +7927,13 @@
         <v>21</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7987,7 +7984,7 @@
         <v>21</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8008,10 +8005,10 @@
         <v>21</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>21</v>
@@ -8019,10 +8016,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8045,13 +8042,13 @@
         <v>21</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8102,7 +8099,7 @@
         <v>21</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8120,10 +8117,10 @@
         <v>21</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>21</v>
@@ -8134,10 +8131,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8160,13 +8157,13 @@
         <v>21</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8217,7 +8214,7 @@
         <v>21</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8238,7 +8235,7 @@
         <v>21</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>21</v>
@@ -8249,10 +8246,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8281,7 +8278,7 @@
         <v>137</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>139</v>
@@ -8334,7 +8331,7 @@
         <v>21</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8355,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>21</v>
@@ -8366,14 +8363,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8395,10 +8392,10 @@
         <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>139</v>
@@ -8453,7 +8450,7 @@
         <v>21</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8485,10 +8482,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8511,16 +8508,16 @@
         <v>21</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8549,11 +8546,11 @@
         <v>173</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>21</v>
       </c>
@@ -8570,7 +8567,7 @@
         <v>21</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>90</v>
@@ -8588,24 +8585,24 @@
         <v>21</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8631,10 +8628,10 @@
         <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8664,11 +8661,11 @@
         <v>173</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>21</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>21</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8703,24 +8700,24 @@
         <v>21</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8743,13 +8740,13 @@
         <v>21</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8800,7 +8797,7 @@
         <v>21</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8815,13 +8812,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>21</v>
@@ -8832,14 +8829,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8858,16 +8855,16 @@
         <v>21</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8917,7 +8914,7 @@
         <v>21</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8938,7 +8935,7 @@
         <v>21</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>21</v>
@@ -8949,10 +8946,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8975,16 +8972,16 @@
         <v>21</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9034,7 +9031,7 @@
         <v>21</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9049,13 +9046,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>21</v>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-HivAltThirdPepPrescription.xlsx
+++ b/StructureDefinition-HivAltThirdPepPrescription.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
